--- a/Document/Historias de usuarios 10-20.xlsx
+++ b/Document/Historias de usuarios 10-20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CRISTIAN\Documents\GitHub\IZZI-PARKING\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNKNOWN\Documents\GitHub\IZZI-PARKING\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5A6D32-0F1A-49EB-90C9-799C848620E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB276B7A-33FE-4552-AD25-A5807B0A30F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4CB1E942-1453-4259-B835-5830CD85585F}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>Descripcion</t>
-  </si>
-  <si>
     <t>Prioridad</t>
   </si>
   <si>
@@ -169,32 +166,35 @@
     <t>Implementar el funcionamiento de los registros desde el back y front</t>
   </si>
   <si>
-    <t xml:space="preserve">ITERACION </t>
-  </si>
-  <si>
     <t>Yo como usuario necesito registrar resrvas para conseguir un lugar de parqueo asegurado</t>
   </si>
   <si>
-    <t>ITERACION 1</t>
-  </si>
-  <si>
-    <t>ITERACION 2</t>
-  </si>
-  <si>
-    <t>ITERACION 3</t>
-  </si>
-  <si>
-    <t>ITERACION 4</t>
-  </si>
-  <si>
-    <t>ITERACION 5</t>
+    <t>ITERACIÓN 1</t>
+  </si>
+  <si>
+    <t>ITERACIÓN 2</t>
+  </si>
+  <si>
+    <t>ITERACIÓN 3</t>
+  </si>
+  <si>
+    <t>ITERACIÓN 4</t>
+  </si>
+  <si>
+    <t>ITERACIÓN 5</t>
+  </si>
+  <si>
+    <t>ITERACIÓN 6</t>
+  </si>
+  <si>
+    <t>Descripción</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,13 +204,6 @@
     </font>
     <font>
       <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -251,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -391,28 +384,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,33 +408,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -536,24 +491,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -561,6 +507,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -581,40 +536,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -648,9 +603,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -972,14 +924,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B221892F-3E93-4B11-9A40-4D4A86A9598F}">
   <dimension ref="A5:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54:H56"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="43.28515625" customWidth="1"/>
     <col min="8" max="8" width="74.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -990,335 +943,337 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="H5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="57">
+      <c r="C6" s="48">
         <v>1</v>
       </c>
-      <c r="D6" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="36">
+      <c r="D6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="27">
+        <v>2</v>
+      </c>
+      <c r="G6" s="27">
         <v>3</v>
       </c>
-      <c r="G6" s="36">
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="49"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="50"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="27">
         <v>2</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="58"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="59"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="1" t="s">
+      <c r="D9" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="39">
+        <v>4</v>
+      </c>
+      <c r="G9" s="42">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="57">
-        <v>2</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="36">
-        <v>2</v>
-      </c>
-      <c r="G9" s="36">
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="28"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="1">
         <v>3</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="29"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
+      <c r="C12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="6">
-        <v>20</v>
+        <f>SUM(I6:I11)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="57">
+      <c r="C15" s="48">
         <v>3</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="36">
+      <c r="E15" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="39">
+        <v>5</v>
+      </c>
+      <c r="G15" s="42">
+        <v>4</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="49"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="50"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="1">
         <v>2</v>
       </c>
-      <c r="G15" s="36">
-        <v>3</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="58"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="59"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="36">
-        <v>4</v>
-      </c>
-      <c r="D18" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="48">
-        <v>4</v>
-      </c>
-      <c r="G18" s="51">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>16</v>
+      <c r="C18" s="27">
+        <v>4</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="27">
+        <v>10</v>
+      </c>
+      <c r="G18" s="27">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I18" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="37"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="3" t="s">
-        <v>42</v>
+      <c r="C19" s="28"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I19" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="38"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="3" t="s">
-        <v>18</v>
+      <c r="C20" s="29"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I20" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
+      <c r="C21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="6">
-        <v>21</v>
+        <f>SUM(I15:I20)</f>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="36">
+      <c r="C24" s="27">
         <v>5</v>
       </c>
-      <c r="D24" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="69">
+      <c r="D24" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="60">
         <v>7</v>
       </c>
-      <c r="G24" s="51">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>16</v>
+      <c r="G24" s="42">
+        <v>4</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="I24" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="37"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="3" t="s">
+      <c r="C25" s="28"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="29"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="I25" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="38"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="I26" s="1">
         <v>3</v>
@@ -1326,23 +1281,23 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
-      <c r="C27" s="57">
+      <c r="C27" s="48">
         <v>6</v>
       </c>
-      <c r="D27" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="48">
+      <c r="D27" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="39">
         <v>6</v>
       </c>
-      <c r="G27" s="51">
+      <c r="G27" s="42">
         <v>7</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>16</v>
+      <c r="H27" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="I27" s="1">
         <v>4</v>
@@ -1350,13 +1305,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="3" t="s">
-        <v>43</v>
+      <c r="C28" s="49"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="I28" s="1">
         <v>5</v>
@@ -1364,13 +1319,13 @@
     </row>
     <row r="29" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="3" t="s">
-        <v>18</v>
+      <c r="C29" s="50"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="I29" s="1">
         <v>2</v>
@@ -1379,59 +1334,60 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="29"/>
+      <c r="C30" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
       <c r="I30" s="6">
+        <f>SUM(I24:I29)</f>
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="32"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="23"/>
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="35"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="26"/>
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
-      <c r="C33" s="57">
+      <c r="C33" s="27">
         <v>7</v>
       </c>
-      <c r="D33" s="60" t="s">
-        <v>10</v>
+      <c r="D33" s="45" t="s">
+        <v>29</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="48">
+        <v>38</v>
+      </c>
+      <c r="F33" s="27">
+        <v>9</v>
+      </c>
+      <c r="G33" s="27">
         <v>5</v>
       </c>
-      <c r="G33" s="51">
-        <v>4</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>16</v>
+      <c r="H33" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I33" s="1">
         <v>4</v>
@@ -1439,13 +1395,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="61"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="46"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="3" t="s">
-        <v>17</v>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="I34" s="1">
         <v>4</v>
@@ -1453,37 +1409,37 @@
     </row>
     <row r="35" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="62"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="47"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="3" t="s">
-        <v>18</v>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="I35" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
-      <c r="C36" s="36">
+      <c r="C36" s="27">
         <v>8</v>
       </c>
-      <c r="D36" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="36">
-        <v>10</v>
-      </c>
-      <c r="G36" s="36">
+      <c r="D36" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="27">
+        <v>9</v>
+      </c>
+      <c r="G36" s="27">
         <v>5</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I36" s="1">
         <v>4</v>
@@ -1491,102 +1447,103 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
       <c r="H37" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I37" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
       <c r="H38" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I38" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="20"/>
+      <c r="C39" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
       <c r="I39" s="6">
+        <f>SUM(I33:I38)</f>
         <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="23"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14"/>
       <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="26"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="17"/>
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
-      <c r="C42" s="36">
+      <c r="C42" s="48">
         <v>9</v>
       </c>
-      <c r="D42" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="F42" s="36">
-        <v>9</v>
-      </c>
-      <c r="G42" s="36">
+      <c r="D42" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="27">
+        <v>3</v>
+      </c>
+      <c r="G42" s="27">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="1">
         <v>5</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
       <c r="H43" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I43" s="1">
         <v>4</v>
@@ -1594,37 +1551,37 @@
     </row>
     <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
       <c r="H44" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I44" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
-      <c r="C45" s="36">
+      <c r="C45" s="48">
         <v>10</v>
       </c>
-      <c r="D45" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="36">
-        <v>9</v>
-      </c>
-      <c r="G45" s="36">
-        <v>5</v>
+      <c r="D45" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="27">
+        <v>2</v>
+      </c>
+      <c r="G45" s="27">
+        <v>3</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I45" s="1">
         <v>4</v>
@@ -1632,35 +1589,35 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
       <c r="H46" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I46" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
       <c r="H47" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C48" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -1668,10 +1625,11 @@
       <c r="G48" s="10"/>
       <c r="H48" s="11"/>
       <c r="I48" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>SUM(I42:I47)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="12"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
@@ -1691,23 +1649,23 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
-      <c r="C51" s="82">
+      <c r="C51" s="73">
         <v>11</v>
       </c>
-      <c r="D51" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="E51" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="82">
+      <c r="D51" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="73">
         <v>8</v>
       </c>
-      <c r="G51" s="82">
+      <c r="G51" s="73">
         <v>5</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I51" s="1">
         <v>4</v>
@@ -1715,13 +1673,13 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
       <c r="H52" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I52" s="1">
         <v>4</v>
@@ -1729,49 +1687,52 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="82"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
       <c r="H53" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I53" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
-      <c r="C54" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" s="83"/>
-      <c r="E54" s="83"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="83"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="2">
+      <c r="C54" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="3">
+        <f>SUM(I51:I53)</f>
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="3"/>
     </row>
     <row r="56" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="83"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="3"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C57" s="4"/>
@@ -1816,74 +1777,63 @@
       <c r="G62" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="88">
     <mergeCell ref="F57:F59"/>
     <mergeCell ref="F60:F62"/>
     <mergeCell ref="G51:G53"/>
     <mergeCell ref="G57:G59"/>
     <mergeCell ref="G60:G62"/>
     <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="D36:D38"/>
     <mergeCell ref="D51:D53"/>
     <mergeCell ref="D57:D59"/>
     <mergeCell ref="D60:D62"/>
-    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C36:C38"/>
     <mergeCell ref="C51:C53"/>
     <mergeCell ref="C57:C59"/>
     <mergeCell ref="C54:H56"/>
-    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="E36:E38"/>
     <mergeCell ref="E51:E53"/>
     <mergeCell ref="E57:E59"/>
     <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
     <mergeCell ref="F45:F47"/>
     <mergeCell ref="G45:G47"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="G9:G11"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="E6:E8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="G15:G17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="D27:D29"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="D24:D26"/>
     <mergeCell ref="E24:E26"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="A39:B41"/>
-    <mergeCell ref="A30:B32"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
     <mergeCell ref="A21:B23"/>
     <mergeCell ref="A12:B14"/>
     <mergeCell ref="C48:H50"/>
@@ -1895,8 +1845,12 @@
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="C30:H32"/>
     <mergeCell ref="I30:I32"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="I54:I56"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B33:B35"/>
@@ -1904,6 +1858,14 @@
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B51:B53"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="A39:B41"/>
+    <mergeCell ref="A30:B32"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
